--- a/Data/OLS_test_Gamma.xlsx
+++ b/Data/OLS_test_Gamma.xlsx
@@ -138,10 +138,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -274,7 +274,7 @@
         <v>1.15</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0.9334</v>
+        <v>0.93304</v>
       </c>
       <c r="C5" s="0" t="n">
         <f aca="false">A5*A5</f>
@@ -525,6 +525,25 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <f aca="false">A12+0.05</f>
+        <v>1.55</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0.88887</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <f aca="false">A13*A13</f>
+        <v>2.4025</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <f aca="false">A13*A13*A13</f>
+        <v>3.723875</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <f aca="false">A13*A13*A13*A13</f>
+        <v>5.77200625</v>
+      </c>
       <c r="F13" s="0" t="n">
         <f aca="false">F12+0.05</f>
         <v>2</v>
@@ -535,6 +554,195 @@
       <c r="I13" s="0" t="n">
         <f aca="false">I12+0.05</f>
         <v>0.6</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <f aca="false">A13+0.05</f>
+        <v>1.6</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0.89352</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <f aca="false">A14*A14</f>
+        <v>2.56</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <f aca="false">A14*A14*A14</f>
+        <v>4.096</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <f aca="false">A14*A14*A14*A14</f>
+        <v>6.5536</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <f aca="false">A14+0.05</f>
+        <v>1.65</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0.90012</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <f aca="false">A15*A15</f>
+        <v>2.7225</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <f aca="false">A15*A15*A15</f>
+        <v>4.492125</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <f aca="false">A15*A15*A15*A15</f>
+        <v>7.41200625</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <f aca="false">A15+0.05</f>
+        <v>1.7</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0.90864</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <f aca="false">A16*A16</f>
+        <v>2.89</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <f aca="false">A16*A16*A16</f>
+        <v>4.913</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <f aca="false">A16*A16*A16*A16</f>
+        <v>8.3521</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <f aca="false">A16+0.05</f>
+        <v>1.75</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0.91906</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <f aca="false">A17*A17</f>
+        <v>3.0625</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <f aca="false">A17*A17*A17</f>
+        <v>5.359375</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <f aca="false">A17*A17*A17*A17</f>
+        <v>9.37890625000001</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <f aca="false">A17+0.05</f>
+        <v>1.8</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0.93138</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <f aca="false">A18*A18</f>
+        <v>3.24</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <f aca="false">A18*A18*A18</f>
+        <v>5.832</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <f aca="false">A18*A18*A18*A18</f>
+        <v>10.4976</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <f aca="false">A18+0.05</f>
+        <v>1.85</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0.94561</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <f aca="false">A19*A19</f>
+        <v>3.4225</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <f aca="false">A19*A19*A19</f>
+        <v>6.331625</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <f aca="false">A19*A19*A19*A19</f>
+        <v>11.71350625</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <f aca="false">A19+0.05</f>
+        <v>1.9</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0.96177</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <f aca="false">A20*A20</f>
+        <v>3.61</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <f aca="false">A20*A20*A20</f>
+        <v>6.859</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <f aca="false">A20*A20*A20*A20</f>
+        <v>13.0321</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <f aca="false">A20+0.05</f>
+        <v>1.95</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>0.97988</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <f aca="false">A21*A21</f>
+        <v>3.8025</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <f aca="false">A21*A21*A21</f>
+        <v>7.41487500000001</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <f aca="false">A21*A21*A21*A21</f>
+        <v>14.45900625</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <f aca="false">A21+0.05</f>
+        <v>2</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <f aca="false">A22*A22</f>
+        <v>4</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <f aca="false">A22*A22*A22</f>
+        <v>8.00000000000001</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <f aca="false">A22*A22*A22*A22</f>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Data/OLS_test_Gamma.xlsx
+++ b/Data/OLS_test_Gamma.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">x</t>
   </si>
@@ -41,6 +41,15 @@
   </si>
   <si>
     <t xml:space="preserve">ny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X0=1.35,i=7→11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y=0.8915→x0=1.3, i=6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\</t>
   </si>
 </sst>
 </file>
@@ -138,10 +147,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13:F22"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -192,9 +201,9 @@
         <f aca="false">A2*A2*A2*A2</f>
         <v>1</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="0" t="e">
         <f aca="false">A10+0.05</f>
-        <v>1.45</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>0.88565</v>
@@ -224,9 +233,9 @@
         <f aca="false">A3*A3*A3*A3</f>
         <v>1.21550625</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="0" t="e">
         <f aca="false">F2+0.05</f>
-        <v>1.5</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>0.88623</v>
@@ -256,9 +265,9 @@
         <f aca="false">A4*A4*A4*A4</f>
         <v>1.4641</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="0" t="e">
         <f aca="false">F3+0.05</f>
-        <v>1.55</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>0.88887</v>
@@ -288,9 +297,9 @@
         <f aca="false">A5*A5*A5*A5</f>
         <v>1.74900625</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="0" t="e">
         <f aca="false">F4+0.05</f>
-        <v>1.6</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>0.89352</v>
@@ -320,9 +329,9 @@
         <f aca="false">A6*A6*A6*A6</f>
         <v>2.0736</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="0" t="e">
         <f aca="false">F5+0.05</f>
-        <v>1.65</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>0.90012</v>
@@ -352,9 +361,9 @@
         <f aca="false">A7*A7*A7*A7</f>
         <v>2.44140625</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="0" t="e">
         <f aca="false">F6+0.05</f>
-        <v>1.7</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>0.90864</v>
@@ -384,9 +393,9 @@
         <f aca="false">A8*A8*A8*A8</f>
         <v>2.8561</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="0" t="e">
         <f aca="false">F7+0.05</f>
-        <v>1.75</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>0.91906</v>
@@ -394,6 +403,12 @@
       <c r="I8" s="0" t="n">
         <f aca="false">I7+0.05</f>
         <v>0.35</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -416,9 +431,9 @@
         <f aca="false">A9*A9*A9*A9</f>
         <v>3.32150625</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="0" t="e">
         <f aca="false">F8+0.05</f>
-        <v>1.8</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>0.93138</v>
@@ -429,28 +444,27 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <f aca="false">A9+0.05</f>
-        <v>1.4</v>
+      <c r="A10" s="0" t="s">
+        <v>9</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.88726</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="0" t="e">
         <f aca="false">A10*A10</f>
-        <v>1.96</v>
-      </c>
-      <c r="D10" s="0" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D10" s="0" t="e">
         <f aca="false">A10*A10*A10</f>
-        <v>2.744</v>
-      </c>
-      <c r="E10" s="0" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E10" s="0" t="e">
         <f aca="false">A10*A10*A10*A10</f>
-        <v>3.8416</v>
-      </c>
-      <c r="F10" s="0" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F10" s="0" t="e">
         <f aca="false">F9+0.05</f>
-        <v>1.85</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>0.914561</v>
@@ -461,28 +475,28 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="0" t="e">
         <f aca="false">A10+0.05</f>
-        <v>1.45</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.88565</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="0" t="e">
         <f aca="false">A11*A11</f>
-        <v>2.1025</v>
-      </c>
-      <c r="D11" s="0" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D11" s="0" t="e">
         <f aca="false">A11*A11*A11</f>
-        <v>3.048625</v>
-      </c>
-      <c r="E11" s="0" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E11" s="0" t="e">
         <f aca="false">A11*A11*A11*A11</f>
-        <v>4.42050625000001</v>
-      </c>
-      <c r="F11" s="0" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F11" s="0" t="e">
         <f aca="false">F10+0.05</f>
-        <v>1.9</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>0.96177</v>
@@ -493,28 +507,28 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="0" t="e">
         <f aca="false">A11+0.05</f>
-        <v>1.5</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.88623</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="0" t="e">
         <f aca="false">A12*A12</f>
-        <v>2.25</v>
-      </c>
-      <c r="D12" s="0" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D12" s="0" t="e">
         <f aca="false">A12*A12*A12</f>
-        <v>3.375</v>
-      </c>
-      <c r="E12" s="0" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E12" s="0" t="e">
         <f aca="false">A12*A12*A12*A12</f>
-        <v>5.06250000000001</v>
-      </c>
-      <c r="F12" s="0" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F12" s="0" t="e">
         <f aca="false">F11+0.05</f>
-        <v>1.95</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>0.97988</v>
@@ -525,28 +539,28 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="0" t="e">
         <f aca="false">A12+0.05</f>
-        <v>1.55</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.88887</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="0" t="e">
         <f aca="false">A13*A13</f>
-        <v>2.4025</v>
-      </c>
-      <c r="D13" s="0" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D13" s="0" t="e">
         <f aca="false">A13*A13*A13</f>
-        <v>3.723875</v>
-      </c>
-      <c r="E13" s="0" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E13" s="0" t="e">
         <f aca="false">A13*A13*A13*A13</f>
-        <v>5.77200625</v>
-      </c>
-      <c r="F13" s="0" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F13" s="0" t="e">
         <f aca="false">F12+0.05</f>
-        <v>2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>1</v>
@@ -557,192 +571,192 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="0" t="e">
         <f aca="false">A13+0.05</f>
-        <v>1.6</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.89352</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="0" t="e">
         <f aca="false">A14*A14</f>
-        <v>2.56</v>
-      </c>
-      <c r="D14" s="0" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D14" s="0" t="e">
         <f aca="false">A14*A14*A14</f>
-        <v>4.096</v>
-      </c>
-      <c r="E14" s="0" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E14" s="0" t="e">
         <f aca="false">A14*A14*A14*A14</f>
-        <v>6.5536</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="0" t="e">
         <f aca="false">A14+0.05</f>
-        <v>1.65</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.90012</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="0" t="e">
         <f aca="false">A15*A15</f>
-        <v>2.7225</v>
-      </c>
-      <c r="D15" s="0" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D15" s="0" t="e">
         <f aca="false">A15*A15*A15</f>
-        <v>4.492125</v>
-      </c>
-      <c r="E15" s="0" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E15" s="0" t="e">
         <f aca="false">A15*A15*A15*A15</f>
-        <v>7.41200625</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="0" t="e">
         <f aca="false">A15+0.05</f>
-        <v>1.7</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.90864</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="0" t="e">
         <f aca="false">A16*A16</f>
-        <v>2.89</v>
-      </c>
-      <c r="D16" s="0" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D16" s="0" t="e">
         <f aca="false">A16*A16*A16</f>
-        <v>4.913</v>
-      </c>
-      <c r="E16" s="0" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E16" s="0" t="e">
         <f aca="false">A16*A16*A16*A16</f>
-        <v>8.3521</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="0" t="e">
         <f aca="false">A16+0.05</f>
-        <v>1.75</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.91906</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="0" t="e">
         <f aca="false">A17*A17</f>
-        <v>3.0625</v>
-      </c>
-      <c r="D17" s="0" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D17" s="0" t="e">
         <f aca="false">A17*A17*A17</f>
-        <v>5.359375</v>
-      </c>
-      <c r="E17" s="0" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E17" s="0" t="e">
         <f aca="false">A17*A17*A17*A17</f>
-        <v>9.37890625000001</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="0" t="e">
         <f aca="false">A17+0.05</f>
-        <v>1.8</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.93138</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="0" t="e">
         <f aca="false">A18*A18</f>
-        <v>3.24</v>
-      </c>
-      <c r="D18" s="0" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D18" s="0" t="e">
         <f aca="false">A18*A18*A18</f>
-        <v>5.832</v>
-      </c>
-      <c r="E18" s="0" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E18" s="0" t="e">
         <f aca="false">A18*A18*A18*A18</f>
-        <v>10.4976</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="0" t="e">
         <f aca="false">A18+0.05</f>
-        <v>1.85</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.94561</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="0" t="e">
         <f aca="false">A19*A19</f>
-        <v>3.4225</v>
-      </c>
-      <c r="D19" s="0" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D19" s="0" t="e">
         <f aca="false">A19*A19*A19</f>
-        <v>6.331625</v>
-      </c>
-      <c r="E19" s="0" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E19" s="0" t="e">
         <f aca="false">A19*A19*A19*A19</f>
-        <v>11.71350625</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="0" t="e">
         <f aca="false">A19+0.05</f>
-        <v>1.9</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.96177</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="0" t="e">
         <f aca="false">A20*A20</f>
-        <v>3.61</v>
-      </c>
-      <c r="D20" s="0" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D20" s="0" t="e">
         <f aca="false">A20*A20*A20</f>
-        <v>6.859</v>
-      </c>
-      <c r="E20" s="0" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E20" s="0" t="e">
         <f aca="false">A20*A20*A20*A20</f>
-        <v>13.0321</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="0" t="e">
         <f aca="false">A20+0.05</f>
-        <v>1.95</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.97988</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="0" t="e">
         <f aca="false">A21*A21</f>
-        <v>3.8025</v>
-      </c>
-      <c r="D21" s="0" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D21" s="0" t="e">
         <f aca="false">A21*A21*A21</f>
-        <v>7.41487500000001</v>
-      </c>
-      <c r="E21" s="0" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E21" s="0" t="e">
         <f aca="false">A21*A21*A21*A21</f>
-        <v>14.45900625</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="0" t="e">
         <f aca="false">A21+0.05</f>
-        <v>2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="0" t="e">
         <f aca="false">A22*A22</f>
-        <v>4</v>
-      </c>
-      <c r="D22" s="0" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D22" s="0" t="e">
         <f aca="false">A22*A22*A22</f>
-        <v>8.00000000000001</v>
-      </c>
-      <c r="E22" s="0" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E22" s="0" t="e">
         <f aca="false">A22*A22*A22*A22</f>
-        <v>16</v>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>

--- a/Data/OLS_test_Gamma.xlsx
+++ b/Data/OLS_test_Gamma.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">x</t>
   </si>
@@ -43,13 +43,22 @@
     <t xml:space="preserve">ny</t>
   </si>
   <si>
+    <t xml:space="preserve">ex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lnx</t>
+  </si>
+  <si>
     <t xml:space="preserve">X0=1.35,i=7→11</t>
   </si>
   <si>
     <t xml:space="preserve">Y=0.8915→x0=1.3, i=6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\</t>
   </si>
 </sst>
 </file>
@@ -147,10 +156,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q4" activeCellId="0" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -181,6 +190,18 @@
       <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="P1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -201,9 +222,9 @@
         <f aca="false">A2*A2*A2*A2</f>
         <v>1</v>
       </c>
-      <c r="F2" s="0" t="e">
+      <c r="F2" s="0" t="n">
         <f aca="false">A10+0.05</f>
-        <v>#VALUE!</v>
+        <v>1.45</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>0.88565</v>
@@ -211,6 +232,20 @@
       <c r="I2" s="0" t="n">
         <f aca="false">I1+0.05</f>
         <v>0.05</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <f aca="false">LN(Q2)</f>
+        <v>1.96009478404727</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <f aca="false">LN(P2)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -233,9 +268,9 @@
         <f aca="false">A3*A3*A3*A3</f>
         <v>1.21550625</v>
       </c>
-      <c r="F3" s="0" t="e">
+      <c r="F3" s="0" t="n">
         <f aca="false">F2+0.05</f>
-        <v>#VALUE!</v>
+        <v>1.5</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>0.88623</v>
@@ -243,6 +278,20 @@
       <c r="I3" s="0" t="n">
         <f aca="false">I2+0.05</f>
         <v>0.1</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <f aca="false">LN(Q3)</f>
+        <v>2.72129542785223</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <f aca="false">LN(P3)</f>
+        <v>0.693147180559945</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -265,9 +314,9 @@
         <f aca="false">A4*A4*A4*A4</f>
         <v>1.4641</v>
       </c>
-      <c r="F4" s="0" t="e">
+      <c r="F4" s="0" t="n">
         <f aca="false">F3+0.05</f>
-        <v>#VALUE!</v>
+        <v>1.55</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>0.88887</v>
@@ -275,6 +324,20 @@
       <c r="I4" s="0" t="n">
         <f aca="false">I3+0.05</f>
         <v>0.15</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <f aca="false">LN(Q4)</f>
+        <v>3.87328217711172</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <f aca="false">LN(P4)</f>
+        <v>1.09861228866811</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -297,9 +360,9 @@
         <f aca="false">A5*A5*A5*A5</f>
         <v>1.74900625</v>
       </c>
-      <c r="F5" s="0" t="e">
+      <c r="F5" s="0" t="n">
         <f aca="false">F4+0.05</f>
-        <v>#VALUE!</v>
+        <v>1.6</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>0.89352</v>
@@ -307,6 +370,20 @@
       <c r="I5" s="0" t="n">
         <f aca="false">I4+0.05</f>
         <v>0.2</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <f aca="false">LN(Q5)</f>
+        <v>4.56746831880408</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <f aca="false">LN(P5)</f>
+        <v>1.38629436111989</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -329,9 +406,9 @@
         <f aca="false">A6*A6*A6*A6</f>
         <v>2.0736</v>
       </c>
-      <c r="F6" s="0" t="e">
+      <c r="F6" s="0" t="n">
         <f aca="false">F5+0.05</f>
-        <v>#VALUE!</v>
+        <v>1.65</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>0.90012</v>
@@ -339,6 +416,20 @@
       <c r="I6" s="0" t="n">
         <f aca="false">I5+0.05</f>
         <v>0.25</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>150.1</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <f aca="false">LN(Q6)</f>
+        <v>5.01130173863942</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <f aca="false">LN(P6)</f>
+        <v>1.6094379124341</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -361,9 +452,9 @@
         <f aca="false">A7*A7*A7*A7</f>
         <v>2.44140625</v>
       </c>
-      <c r="F7" s="0" t="e">
+      <c r="F7" s="0" t="n">
         <f aca="false">F6+0.05</f>
-        <v>#VALUE!</v>
+        <v>1.7</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>0.90864</v>
@@ -393,9 +484,9 @@
         <f aca="false">A8*A8*A8*A8</f>
         <v>2.8561</v>
       </c>
-      <c r="F8" s="0" t="e">
+      <c r="F8" s="0" t="n">
         <f aca="false">F7+0.05</f>
-        <v>#VALUE!</v>
+        <v>1.75</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>0.91906</v>
@@ -405,10 +496,10 @@
         <v>0.35</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -431,9 +522,9 @@
         <f aca="false">A9*A9*A9*A9</f>
         <v>3.32150625</v>
       </c>
-      <c r="F9" s="0" t="e">
+      <c r="F9" s="0" t="n">
         <f aca="false">F8+0.05</f>
-        <v>#VALUE!</v>
+        <v>1.8</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>0.93138</v>
@@ -444,27 +535,28 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>9</v>
+      <c r="A10" s="0" t="n">
+        <f aca="false">A9+0.05</f>
+        <v>1.4</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.88726</v>
       </c>
-      <c r="C10" s="0" t="e">
+      <c r="C10" s="0" t="n">
         <f aca="false">A10*A10</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D10" s="0" t="e">
+        <v>1.96</v>
+      </c>
+      <c r="D10" s="0" t="n">
         <f aca="false">A10*A10*A10</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E10" s="0" t="e">
+        <v>2.744</v>
+      </c>
+      <c r="E10" s="0" t="n">
         <f aca="false">A10*A10*A10*A10</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F10" s="0" t="e">
+        <v>3.8416</v>
+      </c>
+      <c r="F10" s="0" t="n">
         <f aca="false">F9+0.05</f>
-        <v>#VALUE!</v>
+        <v>1.85</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>0.914561</v>
@@ -475,28 +567,28 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="e">
+      <c r="A11" s="0" t="n">
         <f aca="false">A10+0.05</f>
-        <v>#VALUE!</v>
+        <v>1.45</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.88565</v>
       </c>
-      <c r="C11" s="0" t="e">
+      <c r="C11" s="0" t="n">
         <f aca="false">A11*A11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D11" s="0" t="e">
+        <v>2.1025</v>
+      </c>
+      <c r="D11" s="0" t="n">
         <f aca="false">A11*A11*A11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E11" s="0" t="e">
+        <v>3.048625</v>
+      </c>
+      <c r="E11" s="0" t="n">
         <f aca="false">A11*A11*A11*A11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F11" s="0" t="e">
+        <v>4.42050625</v>
+      </c>
+      <c r="F11" s="0" t="n">
         <f aca="false">F10+0.05</f>
-        <v>#VALUE!</v>
+        <v>1.9</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>0.96177</v>
@@ -507,28 +599,28 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="e">
+      <c r="A12" s="0" t="n">
         <f aca="false">A11+0.05</f>
-        <v>#VALUE!</v>
+        <v>1.5</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.88623</v>
       </c>
-      <c r="C12" s="0" t="e">
+      <c r="C12" s="0" t="n">
         <f aca="false">A12*A12</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D12" s="0" t="e">
+        <v>2.25</v>
+      </c>
+      <c r="D12" s="0" t="n">
         <f aca="false">A12*A12*A12</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E12" s="0" t="e">
+        <v>3.375</v>
+      </c>
+      <c r="E12" s="0" t="n">
         <f aca="false">A12*A12*A12*A12</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F12" s="0" t="e">
+        <v>5.0625</v>
+      </c>
+      <c r="F12" s="0" t="n">
         <f aca="false">F11+0.05</f>
-        <v>#VALUE!</v>
+        <v>1.95</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>0.97988</v>
@@ -539,28 +631,28 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="e">
+      <c r="A13" s="0" t="n">
         <f aca="false">A12+0.05</f>
-        <v>#VALUE!</v>
+        <v>1.55</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.88887</v>
       </c>
-      <c r="C13" s="0" t="e">
+      <c r="C13" s="0" t="n">
         <f aca="false">A13*A13</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D13" s="0" t="e">
+        <v>2.4025</v>
+      </c>
+      <c r="D13" s="0" t="n">
         <f aca="false">A13*A13*A13</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E13" s="0" t="e">
+        <v>3.723875</v>
+      </c>
+      <c r="E13" s="0" t="n">
         <f aca="false">A13*A13*A13*A13</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F13" s="0" t="e">
+        <v>5.77200625</v>
+      </c>
+      <c r="F13" s="0" t="n">
         <f aca="false">F12+0.05</f>
-        <v>#VALUE!</v>
+        <v>2</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>1</v>
@@ -571,192 +663,192 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="e">
+      <c r="A14" s="0" t="n">
         <f aca="false">A13+0.05</f>
-        <v>#VALUE!</v>
+        <v>1.6</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.89352</v>
       </c>
-      <c r="C14" s="0" t="e">
+      <c r="C14" s="0" t="n">
         <f aca="false">A14*A14</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D14" s="0" t="e">
+        <v>2.56</v>
+      </c>
+      <c r="D14" s="0" t="n">
         <f aca="false">A14*A14*A14</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E14" s="0" t="e">
+        <v>4.096</v>
+      </c>
+      <c r="E14" s="0" t="n">
         <f aca="false">A14*A14*A14*A14</f>
-        <v>#VALUE!</v>
+        <v>6.5536</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="e">
+      <c r="A15" s="0" t="n">
         <f aca="false">A14+0.05</f>
-        <v>#VALUE!</v>
+        <v>1.65</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.90012</v>
       </c>
-      <c r="C15" s="0" t="e">
+      <c r="C15" s="0" t="n">
         <f aca="false">A15*A15</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D15" s="0" t="e">
+        <v>2.7225</v>
+      </c>
+      <c r="D15" s="0" t="n">
         <f aca="false">A15*A15*A15</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E15" s="0" t="e">
+        <v>4.492125</v>
+      </c>
+      <c r="E15" s="0" t="n">
         <f aca="false">A15*A15*A15*A15</f>
-        <v>#VALUE!</v>
+        <v>7.41200625000001</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="e">
+      <c r="A16" s="0" t="n">
         <f aca="false">A15+0.05</f>
-        <v>#VALUE!</v>
+        <v>1.7</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.90864</v>
       </c>
-      <c r="C16" s="0" t="e">
+      <c r="C16" s="0" t="n">
         <f aca="false">A16*A16</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D16" s="0" t="e">
+        <v>2.89</v>
+      </c>
+      <c r="D16" s="0" t="n">
         <f aca="false">A16*A16*A16</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E16" s="0" t="e">
+        <v>4.913</v>
+      </c>
+      <c r="E16" s="0" t="n">
         <f aca="false">A16*A16*A16*A16</f>
-        <v>#VALUE!</v>
+        <v>8.35210000000001</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="e">
+      <c r="A17" s="0" t="n">
         <f aca="false">A16+0.05</f>
-        <v>#VALUE!</v>
+        <v>1.75</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.91906</v>
       </c>
-      <c r="C17" s="0" t="e">
+      <c r="C17" s="0" t="n">
         <f aca="false">A17*A17</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D17" s="0" t="e">
+        <v>3.0625</v>
+      </c>
+      <c r="D17" s="0" t="n">
         <f aca="false">A17*A17*A17</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E17" s="0" t="e">
+        <v>5.359375</v>
+      </c>
+      <c r="E17" s="0" t="n">
         <f aca="false">A17*A17*A17*A17</f>
-        <v>#VALUE!</v>
+        <v>9.37890625000001</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="e">
+      <c r="A18" s="0" t="n">
         <f aca="false">A17+0.05</f>
-        <v>#VALUE!</v>
+        <v>1.8</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.93138</v>
       </c>
-      <c r="C18" s="0" t="e">
+      <c r="C18" s="0" t="n">
         <f aca="false">A18*A18</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D18" s="0" t="e">
+        <v>3.24</v>
+      </c>
+      <c r="D18" s="0" t="n">
         <f aca="false">A18*A18*A18</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E18" s="0" t="e">
+        <v>5.832</v>
+      </c>
+      <c r="E18" s="0" t="n">
         <f aca="false">A18*A18*A18*A18</f>
-        <v>#VALUE!</v>
+        <v>10.4976</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="e">
+      <c r="A19" s="0" t="n">
         <f aca="false">A18+0.05</f>
-        <v>#VALUE!</v>
+        <v>1.85</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.94561</v>
       </c>
-      <c r="C19" s="0" t="e">
+      <c r="C19" s="0" t="n">
         <f aca="false">A19*A19</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D19" s="0" t="e">
+        <v>3.4225</v>
+      </c>
+      <c r="D19" s="0" t="n">
         <f aca="false">A19*A19*A19</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E19" s="0" t="e">
+        <v>6.33162500000001</v>
+      </c>
+      <c r="E19" s="0" t="n">
         <f aca="false">A19*A19*A19*A19</f>
-        <v>#VALUE!</v>
+        <v>11.71350625</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="e">
+      <c r="A20" s="0" t="n">
         <f aca="false">A19+0.05</f>
-        <v>#VALUE!</v>
+        <v>1.9</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.96177</v>
       </c>
-      <c r="C20" s="0" t="e">
+      <c r="C20" s="0" t="n">
         <f aca="false">A20*A20</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D20" s="0" t="e">
+        <v>3.61</v>
+      </c>
+      <c r="D20" s="0" t="n">
         <f aca="false">A20*A20*A20</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E20" s="0" t="e">
+        <v>6.85900000000001</v>
+      </c>
+      <c r="E20" s="0" t="n">
         <f aca="false">A20*A20*A20*A20</f>
-        <v>#VALUE!</v>
+        <v>13.0321</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="e">
+      <c r="A21" s="0" t="n">
         <f aca="false">A20+0.05</f>
-        <v>#VALUE!</v>
+        <v>1.95</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.97988</v>
       </c>
-      <c r="C21" s="0" t="e">
+      <c r="C21" s="0" t="n">
         <f aca="false">A21*A21</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D21" s="0" t="e">
+        <v>3.8025</v>
+      </c>
+      <c r="D21" s="0" t="n">
         <f aca="false">A21*A21*A21</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E21" s="0" t="e">
+        <v>7.41487500000001</v>
+      </c>
+      <c r="E21" s="0" t="n">
         <f aca="false">A21*A21*A21*A21</f>
-        <v>#VALUE!</v>
+        <v>14.45900625</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="e">
+      <c r="A22" s="0" t="n">
         <f aca="false">A21+0.05</f>
-        <v>#VALUE!</v>
+        <v>2</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C22" s="0" t="e">
+      <c r="C22" s="0" t="n">
         <f aca="false">A22*A22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D22" s="0" t="e">
+        <v>4</v>
+      </c>
+      <c r="D22" s="0" t="n">
         <f aca="false">A22*A22*A22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E22" s="0" t="e">
+        <v>8.00000000000001</v>
+      </c>
+      <c r="E22" s="0" t="n">
         <f aca="false">A22*A22*A22*A22</f>
-        <v>#VALUE!</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
